--- a/Basic Excel Assignment.xlsx
+++ b/Basic Excel Assignment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16efa8b916005b48/Documents/DA/Excel/Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B839AA1C-DC96-48E8-AA20-C4B4E6AF375D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{054B371D-83BF-E346-A53F-810CA3779BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{62309DD9-831A-412E-9FA3-07B185AD3746}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{62309DD9-831A-412E-9FA3-07B185AD3746}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <sheet name="Question-7" sheetId="8" r:id="rId8"/>
     <sheet name="Question-8" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="4" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,6 +38,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4429,7 +4431,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0AA19F3B-94BC-429E-87D1-EF61AE2DB8AB}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0AA19F3B-94BC-429E-87D1-EF61AE2DB8AB}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="B2:C8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -4949,9 +4951,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4989,7 +4991,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5095,7 +5097,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5237,7 +5239,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5247,13 +5249,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACD69DD-3EEB-411B-A631-1A933D04CA95}">
   <dimension ref="E1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="5:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="5:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -5262,7 +5264,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="5:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="5:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -5270,7 +5272,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="5:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="26" t="s">
         <v>127</v>
       </c>
@@ -5290,7 +5292,7 @@
       <c r="S3" s="26"/>
       <c r="T3" s="26"/>
     </row>
-    <row r="4" spans="5:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
@@ -5308,7 +5310,7 @@
       <c r="S4" s="26"/>
       <c r="T4" s="26"/>
     </row>
-    <row r="5" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
@@ -5326,7 +5328,7 @@
       <c r="S5" s="26"/>
       <c r="T5" s="26"/>
     </row>
-    <row r="6" spans="5:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
@@ -5344,7 +5346,7 @@
       <c r="S6" s="26"/>
       <c r="T6" s="26"/>
     </row>
-    <row r="7" spans="5:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -5362,7 +5364,7 @@
       <c r="S7" s="26"/>
       <c r="T7" s="26"/>
     </row>
-    <row r="8" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -5380,7 +5382,7 @@
       <c r="S8" s="26"/>
       <c r="T8" s="26"/>
     </row>
-    <row r="9" spans="5:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -5398,7 +5400,7 @@
       <c r="S9" s="26"/>
       <c r="T9" s="26"/>
     </row>
-    <row r="10" spans="5:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -5416,7 +5418,7 @@
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
     </row>
-    <row r="11" spans="5:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
@@ -5434,7 +5436,7 @@
       <c r="S11" s="26"/>
       <c r="T11" s="26"/>
     </row>
-    <row r="12" spans="5:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
@@ -5452,7 +5454,7 @@
       <c r="S12" s="26"/>
       <c r="T12" s="26"/>
     </row>
-    <row r="13" spans="5:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
@@ -5470,7 +5472,7 @@
       <c r="S13" s="26"/>
       <c r="T13" s="26"/>
     </row>
-    <row r="14" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
@@ -5488,7 +5490,7 @@
       <c r="S14" s="26"/>
       <c r="T14" s="26"/>
     </row>
-    <row r="15" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
@@ -5506,7 +5508,7 @@
       <c r="S15" s="26"/>
       <c r="T15" s="26"/>
     </row>
-    <row r="16" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -5524,7 +5526,7 @@
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
     </row>
-    <row r="17" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
@@ -5542,7 +5544,7 @@
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
     </row>
-    <row r="18" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
@@ -5560,7 +5562,7 @@
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
     </row>
-    <row r="19" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
@@ -5578,7 +5580,7 @@
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
     </row>
-    <row r="20" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
@@ -5596,7 +5598,7 @@
       <c r="S20" s="26"/>
       <c r="T20" s="26"/>
     </row>
-    <row r="21" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
@@ -5614,7 +5616,7 @@
       <c r="S21" s="26"/>
       <c r="T21" s="26"/>
     </row>
-    <row r="22" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
@@ -5632,7 +5634,7 @@
       <c r="S22" s="26"/>
       <c r="T22" s="26"/>
     </row>
-    <row r="23" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
@@ -5655,6 +5657,7 @@
     <mergeCell ref="E3:T23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="0" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -5666,12 +5669,12 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.22265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -5679,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -5687,92 +5690,92 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>19</v>
       </c>
@@ -5780,7 +5783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>19</v>
       </c>
@@ -5788,7 +5791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>19</v>
       </c>
@@ -5810,12 +5813,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="2" max="2" width="29.99609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -5823,12 +5826,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
@@ -5836,7 +5839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
@@ -5844,7 +5847,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
@@ -5852,7 +5855,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>27</v>
       </c>
@@ -5860,12 +5863,12 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>29</v>
       </c>
@@ -5874,7 +5877,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>33</v>
       </c>
@@ -5883,7 +5886,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>34</v>
       </c>
@@ -5901,16 +5904,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27C718D-CFDA-4773-9F99-8E75F7D7809C}">
   <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="1" max="1" width="9.953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
@@ -5918,7 +5921,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>36</v>
       </c>
@@ -5929,7 +5932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>37</v>
       </c>
@@ -5940,7 +5943,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>38</v>
       </c>
@@ -5951,7 +5954,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>39</v>
       </c>
@@ -5959,15 +5962,15 @@
         <v>250</v>
       </c>
       <c r="D7" s="9">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="25" t="s">
         <v>128</v>
       </c>
@@ -5975,14 +5978,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11">
         <f>AVERAGEIFS(D5:D7,C5:C7,"&gt;100",C5:C7,"&lt;300")</f>
-        <v>13100</v>
+        <v>1350</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="0" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -5990,19 +5994,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57AFBFC-025A-447F-B121-0DB0D53222EB}">
   <dimension ref="B1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="10.22265625" customWidth="1"/>
+    <col min="8" max="8" width="13.046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>44</v>
       </c>
@@ -6031,7 +6035,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="30" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13">
         <v>1001</v>
       </c>
@@ -6061,7 +6065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13">
         <v>1002</v>
       </c>
@@ -6084,7 +6088,7 @@
         <v>45297</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
         <v>1003</v>
       </c>
@@ -6107,7 +6111,7 @@
         <v>45298</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>1004</v>
       </c>
@@ -6130,7 +6134,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>1005</v>
       </c>
@@ -6153,7 +6157,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>1006</v>
       </c>
@@ -6176,7 +6180,7 @@
         <v>45302</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>1007</v>
       </c>
@@ -6199,7 +6203,7 @@
         <v>45304</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <v>1008</v>
       </c>
@@ -6222,7 +6226,7 @@
         <v>45306</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>1009</v>
       </c>
@@ -6245,7 +6249,7 @@
         <v>45308</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <v>1010</v>
       </c>
@@ -6268,7 +6272,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13">
         <v>1011</v>
       </c>
@@ -6291,7 +6295,7 @@
         <v>45310</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <v>1012</v>
       </c>
@@ -6314,7 +6318,7 @@
         <v>45311</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
         <v>1013</v>
       </c>
@@ -6337,7 +6341,7 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
         <v>1014</v>
       </c>
@@ -6360,7 +6364,7 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
         <v>1015</v>
       </c>
@@ -6383,7 +6387,7 @@
         <v>45315</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <v>1016</v>
       </c>
@@ -6406,7 +6410,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="13">
         <v>1017</v>
       </c>
@@ -6429,7 +6433,7 @@
         <v>45319</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <v>1018</v>
       </c>
@@ -6452,7 +6456,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
         <v>1019</v>
       </c>
@@ -6475,7 +6479,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <v>1020</v>
       </c>
@@ -6498,7 +6502,7 @@
         <v>45323</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>1021</v>
       </c>
@@ -6521,7 +6525,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13">
         <v>1022</v>
       </c>
@@ -6544,7 +6548,7 @@
         <v>45325</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
         <v>1023</v>
       </c>
@@ -6567,7 +6571,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="13">
         <v>1024</v>
       </c>
@@ -6590,7 +6594,7 @@
         <v>45328</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13">
         <v>1025</v>
       </c>
@@ -6613,7 +6617,7 @@
         <v>45329</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>1026</v>
       </c>
@@ -6636,7 +6640,7 @@
         <v>45330</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>1027</v>
       </c>
@@ -6659,7 +6663,7 @@
         <v>45331</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="13">
         <v>1028</v>
       </c>
@@ -6682,7 +6686,7 @@
         <v>45332</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13">
         <v>1029</v>
       </c>
@@ -6705,7 +6709,7 @@
         <v>45334</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13">
         <v>1030</v>
       </c>
@@ -6728,7 +6732,7 @@
         <v>45335</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13">
         <v>1031</v>
       </c>
@@ -6751,7 +6755,7 @@
         <v>45336</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>1032</v>
       </c>
@@ -6774,7 +6778,7 @@
         <v>45338</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="13">
         <v>1033</v>
       </c>
@@ -6797,7 +6801,7 @@
         <v>45339</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="13">
         <v>1034</v>
       </c>
@@ -6820,7 +6824,7 @@
         <v>45340</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="13">
         <v>1035</v>
       </c>
@@ -6843,7 +6847,7 @@
         <v>45341</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="13">
         <v>1036</v>
       </c>
@@ -6866,7 +6870,7 @@
         <v>45343</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="13">
         <v>1037</v>
       </c>
@@ -6889,7 +6893,7 @@
         <v>45344</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="13">
         <v>1038</v>
       </c>
@@ -6912,7 +6916,7 @@
         <v>45345</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="13">
         <v>1039</v>
       </c>
@@ -6935,7 +6939,7 @@
         <v>45347</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="13">
         <v>1040</v>
       </c>
@@ -6958,7 +6962,7 @@
         <v>45348</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="13">
         <v>1041</v>
       </c>
@@ -6981,7 +6985,7 @@
         <v>45349</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13">
         <v>1042</v>
       </c>
@@ -7004,7 +7008,7 @@
         <v>45350</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="13">
         <v>1043</v>
       </c>
@@ -7027,7 +7031,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="13">
         <v>1044</v>
       </c>
@@ -7050,7 +7054,7 @@
         <v>45353</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="13">
         <v>1045</v>
       </c>
@@ -7073,7 +7077,7 @@
         <v>45354</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>1046</v>
       </c>
@@ -7096,7 +7100,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="13">
         <v>1047</v>
       </c>
@@ -7119,7 +7123,7 @@
         <v>45356</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="13">
         <v>1048</v>
       </c>
@@ -7142,7 +7146,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="13">
         <v>1049</v>
       </c>
@@ -7165,7 +7169,7 @@
         <v>45358</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="13">
         <v>1050</v>
       </c>
@@ -7197,17 +7201,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CBF656-891F-426E-91C2-E2F05FD62B9F}">
   <dimension ref="B3:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="D44" workbookViewId="0">
       <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.02734375" customWidth="1"/>
+    <col min="8" max="8" width="10.4921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J3" s="18" t="s">
         <v>113</v>
       </c>
@@ -7215,7 +7219,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>44</v>
       </c>
@@ -7244,7 +7248,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
         <v>1001</v>
       </c>
@@ -7271,7 +7275,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>1002</v>
       </c>
@@ -7298,7 +7302,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>1003</v>
       </c>
@@ -7325,7 +7329,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>1004</v>
       </c>
@@ -7352,7 +7356,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>1005</v>
       </c>
@@ -7379,7 +7383,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <v>1006</v>
       </c>
@@ -7406,7 +7410,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>1007</v>
       </c>
@@ -7433,7 +7437,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <v>1008</v>
       </c>
@@ -7460,7 +7464,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13">
         <v>1009</v>
       </c>
@@ -7487,7 +7491,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <v>1010</v>
       </c>
@@ -7514,7 +7518,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
         <v>1011</v>
       </c>
@@ -7541,7 +7545,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
         <v>1012</v>
       </c>
@@ -7568,7 +7572,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
         <v>1013</v>
       </c>
@@ -7595,7 +7599,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <v>1014</v>
       </c>
@@ -7622,7 +7626,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="13">
         <v>1015</v>
       </c>
@@ -7649,7 +7653,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <v>1016</v>
       </c>
@@ -7676,7 +7680,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
         <v>1017</v>
       </c>
@@ -7703,7 +7707,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <v>1018</v>
       </c>
@@ -7730,7 +7734,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>1019</v>
       </c>
@@ -7757,7 +7761,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13">
         <v>1020</v>
       </c>
@@ -7784,7 +7788,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
         <v>1021</v>
       </c>
@@ -7811,7 +7815,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="13">
         <v>1022</v>
       </c>
@@ -7838,7 +7842,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13">
         <v>1023</v>
       </c>
@@ -7865,7 +7869,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>1024</v>
       </c>
@@ -7892,7 +7896,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>1025</v>
       </c>
@@ -7919,7 +7923,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="13">
         <v>1026</v>
       </c>
@@ -7946,7 +7950,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13">
         <v>1027</v>
       </c>
@@ -7973,7 +7977,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13">
         <v>1028</v>
       </c>
@@ -8000,7 +8004,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13">
         <v>1029</v>
       </c>
@@ -8027,7 +8031,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>1030</v>
       </c>
@@ -8054,7 +8058,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="13">
         <v>1031</v>
       </c>
@@ -8081,7 +8085,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="13">
         <v>1032</v>
       </c>
@@ -8108,7 +8112,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="13">
         <v>1033</v>
       </c>
@@ -8135,7 +8139,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="13">
         <v>1034</v>
       </c>
@@ -8162,7 +8166,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="13">
         <v>1035</v>
       </c>
@@ -8189,7 +8193,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="13">
         <v>1036</v>
       </c>
@@ -8216,7 +8220,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="13">
         <v>1037</v>
       </c>
@@ -8243,7 +8247,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="13">
         <v>1038</v>
       </c>
@@ -8270,7 +8274,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="13">
         <v>1039</v>
       </c>
@@ -8297,7 +8301,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13">
         <v>1040</v>
       </c>
@@ -8324,7 +8328,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="13">
         <v>1041</v>
       </c>
@@ -8351,7 +8355,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="13">
         <v>1042</v>
       </c>
@@ -8378,7 +8382,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="13">
         <v>1043</v>
       </c>
@@ -8405,7 +8409,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>1044</v>
       </c>
@@ -8432,7 +8436,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="13">
         <v>1045</v>
       </c>
@@ -8459,7 +8463,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="13">
         <v>1046</v>
       </c>
@@ -8486,7 +8490,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="13">
         <v>1047</v>
       </c>
@@ -8513,7 +8517,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="13">
         <v>1048</v>
       </c>
@@ -8540,7 +8544,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="13">
         <v>1049</v>
       </c>
@@ -8567,7 +8571,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:11" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="13">
         <v>1050</v>
       </c>
@@ -8603,19 +8607,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58781399-4B8A-47BA-A9F9-5D0AD0C05481}">
   <dimension ref="B1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.22265625" customWidth="1"/>
+    <col min="8" max="8" width="10.35546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>44</v>
       </c>
@@ -8647,7 +8651,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13">
         <v>1001</v>
       </c>
@@ -8681,7 +8685,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13">
         <v>1002</v>
       </c>
@@ -8708,7 +8712,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
         <v>1003</v>
       </c>
@@ -8735,7 +8739,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>1004</v>
       </c>
@@ -8762,7 +8766,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>1005</v>
       </c>
@@ -8789,7 +8793,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>1006</v>
       </c>
@@ -8816,7 +8820,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>1007</v>
       </c>
@@ -8843,7 +8847,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <v>1008</v>
       </c>
@@ -8870,7 +8874,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>1009</v>
       </c>
@@ -8897,7 +8901,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <v>1010</v>
       </c>
@@ -8924,7 +8928,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13">
         <v>1011</v>
       </c>
@@ -8951,7 +8955,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <v>1012</v>
       </c>
@@ -8978,7 +8982,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
         <v>1013</v>
       </c>
@@ -9005,7 +9009,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
         <v>1014</v>
       </c>
@@ -9032,7 +9036,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
         <v>1015</v>
       </c>
@@ -9059,7 +9063,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <v>1016</v>
       </c>
@@ -9086,7 +9090,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="13">
         <v>1017</v>
       </c>
@@ -9113,7 +9117,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <v>1018</v>
       </c>
@@ -9140,7 +9144,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
         <v>1019</v>
       </c>
@@ -9167,7 +9171,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <v>1020</v>
       </c>
@@ -9194,7 +9198,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>1021</v>
       </c>
@@ -9221,7 +9225,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13">
         <v>1022</v>
       </c>
@@ -9248,7 +9252,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
         <v>1023</v>
       </c>
@@ -9275,7 +9279,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="13">
         <v>1024</v>
       </c>
@@ -9302,7 +9306,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13">
         <v>1025</v>
       </c>
@@ -9329,7 +9333,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>1026</v>
       </c>
@@ -9356,7 +9360,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>1027</v>
       </c>
@@ -9383,7 +9387,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="13">
         <v>1028</v>
       </c>
@@ -9410,7 +9414,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13">
         <v>1029</v>
       </c>
@@ -9437,7 +9441,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13">
         <v>1030</v>
       </c>
@@ -9464,7 +9468,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13">
         <v>1031</v>
       </c>
@@ -9491,7 +9495,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>1032</v>
       </c>
@@ -9518,7 +9522,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="13">
         <v>1033</v>
       </c>
@@ -9545,7 +9549,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="13">
         <v>1034</v>
       </c>
@@ -9572,7 +9576,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="13">
         <v>1035</v>
       </c>
@@ -9599,7 +9603,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="13">
         <v>1036</v>
       </c>
@@ -9626,7 +9630,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="13">
         <v>1037</v>
       </c>
@@ -9653,7 +9657,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="13">
         <v>1038</v>
       </c>
@@ -9680,7 +9684,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="13">
         <v>1039</v>
       </c>
@@ -9707,7 +9711,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="13">
         <v>1040</v>
       </c>
@@ -9734,7 +9738,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="13">
         <v>1041</v>
       </c>
@@ -9761,7 +9765,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13">
         <v>1042</v>
       </c>
@@ -9788,7 +9792,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="13">
         <v>1043</v>
       </c>
@@ -9815,7 +9819,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="13">
         <v>1044</v>
       </c>
@@ -9842,7 +9846,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="13">
         <v>1045</v>
       </c>
@@ -9869,7 +9873,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>1046</v>
       </c>
@@ -9896,7 +9900,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="13">
         <v>1047</v>
       </c>
@@ -9923,7 +9927,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="13">
         <v>1048</v>
       </c>
@@ -9950,7 +9954,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="13">
         <v>1049</v>
       </c>
@@ -9977,7 +9981,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="13">
         <v>1050</v>
       </c>
@@ -10013,20 +10017,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A496F5-ED59-4A72-9F22-DA170A8E50B0}">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5078125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.43359375" customWidth="1"/>
+    <col min="9" max="9" width="10.4921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
         <v>123</v>
       </c>
@@ -10040,7 +10044,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="23" t="s">
         <v>66</v>
       </c>
@@ -10051,7 +10055,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="23" t="s">
         <v>59</v>
       </c>
@@ -10059,7 +10063,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
         <v>53</v>
       </c>
@@ -10067,7 +10071,7 @@
         <v>7550</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="23" t="s">
         <v>56</v>
       </c>
@@ -10075,7 +10079,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="23" t="s">
         <v>63</v>
       </c>
@@ -10083,7 +10087,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="23" t="s">
         <v>124</v>
       </c>
@@ -10101,20 +10105,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05FB96D-21A8-495B-8466-5DF05DA09673}">
   <dimension ref="B1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="2" max="2" width="12.5078125" customWidth="1"/>
+    <col min="3" max="3" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" customWidth="1"/>
+    <col min="8" max="8" width="11.97265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
         <v>50</v>
       </c>
@@ -10128,7 +10132,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15">
         <v>45296</v>
       </c>
@@ -10140,7 +10144,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15">
         <v>45297</v>
       </c>
@@ -10149,7 +10153,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15">
         <v>45298</v>
       </c>
@@ -10158,7 +10162,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15">
         <v>45299</v>
       </c>
@@ -10167,7 +10171,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15">
         <v>45301</v>
       </c>
@@ -10176,7 +10180,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15">
         <v>45302</v>
       </c>
@@ -10185,7 +10189,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
         <v>45304</v>
       </c>
@@ -10194,7 +10198,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15">
         <v>45306</v>
       </c>
@@ -10203,7 +10207,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15">
         <v>45308</v>
       </c>
@@ -10212,7 +10216,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15">
         <v>45309</v>
       </c>
@@ -10221,7 +10225,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
         <v>45310</v>
       </c>
@@ -10230,7 +10234,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15">
         <v>45311</v>
       </c>
@@ -10239,7 +10243,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15">
         <v>45313</v>
       </c>
@@ -10248,7 +10252,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15">
         <v>45314</v>
       </c>
@@ -10257,7 +10261,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15">
         <v>45315</v>
       </c>
@@ -10266,7 +10270,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="15">
         <v>45317</v>
       </c>
@@ -10275,7 +10279,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15">
         <v>45319</v>
       </c>
@@ -10284,7 +10288,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15">
         <v>45320</v>
       </c>
@@ -10293,7 +10297,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15">
         <v>45321</v>
       </c>
@@ -10302,7 +10306,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15">
         <v>45323</v>
       </c>
@@ -10311,7 +10315,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="15">
         <v>45324</v>
       </c>
@@ -10320,7 +10324,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="15">
         <v>45325</v>
       </c>
@@ -10329,7 +10333,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="15">
         <v>45326</v>
       </c>
@@ -10338,7 +10342,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="15">
         <v>45328</v>
       </c>
@@ -10347,7 +10351,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="15">
         <v>45329</v>
       </c>
@@ -10356,7 +10360,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="15">
         <v>45330</v>
       </c>
@@ -10365,7 +10369,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15">
         <v>45331</v>
       </c>
@@ -10374,7 +10378,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="15">
         <v>45332</v>
       </c>
@@ -10383,7 +10387,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15">
         <v>45334</v>
       </c>
@@ -10392,7 +10396,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="15">
         <v>45335</v>
       </c>
@@ -10401,7 +10405,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="15">
         <v>45336</v>
       </c>
@@ -10410,7 +10414,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="15">
         <v>45338</v>
       </c>
@@ -10419,7 +10423,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="15">
         <v>45339</v>
       </c>
@@ -10428,7 +10432,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="15">
         <v>45340</v>
       </c>
@@ -10437,7 +10441,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="15">
         <v>45341</v>
       </c>
@@ -10446,7 +10450,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="15">
         <v>45343</v>
       </c>
@@ -10455,7 +10459,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="15">
         <v>45344</v>
       </c>
@@ -10464,7 +10468,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="15">
         <v>45345</v>
       </c>
@@ -10473,7 +10477,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="15">
         <v>45347</v>
       </c>
@@ -10482,7 +10486,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="15">
         <v>45348</v>
       </c>
@@ -10491,7 +10495,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="15">
         <v>45349</v>
       </c>
@@ -10500,7 +10504,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="15">
         <v>45350</v>
       </c>
@@ -10509,7 +10513,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="15">
         <v>45352</v>
       </c>
@@ -10518,7 +10522,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="15">
         <v>45353</v>
       </c>
@@ -10527,7 +10531,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="15">
         <v>45354</v>
       </c>
@@ -10536,7 +10540,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="15">
         <v>45355</v>
       </c>
@@ -10545,7 +10549,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="15">
         <v>45356</v>
       </c>
@@ -10554,7 +10558,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="15">
         <v>45357</v>
       </c>
@@ -10563,7 +10567,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="15">
         <v>45358</v>
       </c>
@@ -10572,7 +10576,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="15">
         <v>45359</v>
       </c>
